--- a/1.Document/Communication Example (Exel)/Example comunication frame.xlsx
+++ b/1.Document/Communication Example (Exel)/Example comunication frame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
   <dimension ref="B4:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1.Document/Communication Example (Exel)/Example comunication frame.xlsx
+++ b/1.Document/Communication Example (Exel)/Example comunication frame.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="B4:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1.Document/Communication Example (Exel)/Example comunication frame.xlsx
+++ b/1.Document/Communication Example (Exel)/Example comunication frame.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52CB2A4-DED1-4339-9633-013A41CEB004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Giao tiếp với máy đo" sheetId="1" r:id="rId1"/>
+    <sheet name="Giao tiếp phần mềm" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>Read value</t>
   </si>
@@ -43,16 +45,168 @@
   </si>
   <si>
     <t>AA 00 21 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 CC</t>
+  </si>
+  <si>
+    <t>Khung truyền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kí tự bắt đầu </t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>mã lệnh</t>
+  </si>
+  <si>
+    <t>Dữ liệu đính kèm(nếu có)</t>
+  </si>
+  <si>
+    <t>Checksum</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>1 ~ 255</t>
+  </si>
+  <si>
+    <t>0 ~ 255</t>
+  </si>
+  <si>
+    <t>32 bit</t>
+  </si>
+  <si>
+    <t>8 bit</t>
+  </si>
+  <si>
+    <t>Mẫu</t>
+  </si>
+  <si>
+    <t>kiểm tra kết nối</t>
+  </si>
+  <si>
+    <t>đọc kênh 1</t>
+  </si>
+  <si>
+    <t>đọc kênh 2</t>
+  </si>
+  <si>
+    <t>dữ liệu</t>
+  </si>
+  <si>
+    <t>&lt;giá trị điện áp kênh 1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;giá trị điện áp kênh 2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kết quả test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mô tả </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra kết nối với máy đo </t>
+  </si>
+  <si>
+    <t>đọc giá trị máy đo tại vị trí A</t>
+  </si>
+  <si>
+    <t>đọc giá trị máy đo tại vị trí B</t>
+  </si>
+  <si>
+    <t>Kết quả test NG cả hai kênh</t>
+  </si>
+  <si>
+    <t>Kết quả test NG kênh A</t>
+  </si>
+  <si>
+    <t>Kết quả test NG kênh B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết quả test OK </t>
+  </si>
+  <si>
+    <t>test trống hai kênh (chưa kết nối cap trong con hàng)</t>
+  </si>
+  <si>
+    <t>test trống kênh B</t>
+  </si>
+  <si>
+    <t>test trống kênh A</t>
+  </si>
+  <si>
+    <t>set chế độ test 1 kênh</t>
+  </si>
+  <si>
+    <t>set chế độ test 2 kênh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chưa kết nối hai đầu vào </t>
+  </si>
+  <si>
+    <t>đầu b kết nối</t>
+  </si>
+  <si>
+    <t>đầu a kết nối</t>
+  </si>
+  <si>
+    <t>Hai đầu kết nối</t>
+  </si>
+  <si>
+    <t>trạng thái relay và buzzer đều off</t>
+  </si>
+  <si>
+    <t>relay on buzzer off</t>
+  </si>
+  <si>
+    <t>relay off buzzer on</t>
+  </si>
+  <si>
+    <t>cả relay bà buzzer đều on</t>
+  </si>
+  <si>
+    <t>tăt relay và buzzer</t>
+  </si>
+  <si>
+    <t>bật buzzer tắt relay</t>
+  </si>
+  <si>
+    <t>bật buzzer và relay</t>
+  </si>
+  <si>
+    <t>bật relay tắt buzzer</t>
+  </si>
+  <si>
+    <t>chỉ bật buzzer</t>
+  </si>
+  <si>
+    <t>chỉ bật relay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -74,13 +228,287 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,11 +788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,4 +919,848 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84B6AD7-E87D-4AF6-A771-B6C0041F2BFA}">
+  <dimension ref="B1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="47.7109375" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13">
+        <f xml:space="preserve">  MOD(SUM(D4:G4) + 36, 256)</f>
+        <v>37</v>
+      </c>
+      <c r="I4" s="13" t="str">
+        <f>IF( G4 ="", CONCATENATE( C4,"|",D4,"|",E4,"|",F4,"|",H4,"\r"), CONCATENATE( C4,"|",D4,"|",E4,"|",F4,"|",G4,"|",H4,"\r"))</f>
+        <v>$|1|0|0|37\r</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" ref="H5:H29" si="0" xml:space="preserve">  MOD(SUM(D5:G5) + 36, 256)</f>
+        <v>38</v>
+      </c>
+      <c r="I5" s="13" t="str">
+        <f t="shared" ref="I5:I29" si="1">IF( G5 ="", CONCATENATE( C5,"|",D5,"|",E5,"|",F5,"|",H5,"\r"), CONCATENATE( C5,"|",D5,"|",E5,"|",F5,"|",G5,"|",H5,"\r"))</f>
+        <v>$|1|1|0|&lt;giá trị điện áp kênh 1&gt;|38\r</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I6" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|1|0|&lt;giá trị điện áp kênh 2&gt;|38\r</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I7" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|2|0|0|39\r</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I8" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|2|0|1|40\r</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>10</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="I9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|2|0|10|49\r</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>2</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <v>11</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|2|0|11|50\r</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>22</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" ref="H11:H13" si="2" xml:space="preserve">  MOD(SUM(D11:G11) + 36, 256)</f>
+        <v>61</v>
+      </c>
+      <c r="I11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|2|0|22|61\r</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
+        <v>2</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <v>12</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="I12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|2|0|12|51\r</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <v>2</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <v>21</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="I13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|2|0|21|60\r</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
+        <v>3</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="I14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|3|0|1|41\r</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17">
+        <v>3</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>2</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|3|0|2|42\r</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
+        <v>4</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="I16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|4|0|0|41\r</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I17" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|4|0|1|42\r</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17">
+        <v>4</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <v>10</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="I18" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|4|0|10|51\r</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
+        <v>4</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>11</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="I19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|4|0|11|52\r</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1</v>
+      </c>
+      <c r="E20" s="17">
+        <v>5</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I20" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|5|0|0|42\r</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17">
+        <v>5</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="I21" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|5|0|1|43\r</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17">
+        <v>5</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <v>10</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="I22" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|5|0|10|52\r</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1</v>
+      </c>
+      <c r="E23" s="17">
+        <v>5</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>11</v>
+      </c>
+      <c r="H23" s="17">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="I23" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|5|0|11|53\r</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="17">
+        <v>6</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="I24" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|6|0|0|43\r</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17">
+        <v>6</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="I25" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|6|0|1|44\r</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17">
+        <v>6</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <v>10</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="I26" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|6|0|10|53\r</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>6</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <v>11</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="I27" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|6|0|11|54\r</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>6</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <v>21</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|6|0|21|64\r</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1</v>
+      </c>
+      <c r="E29" s="21">
+        <v>6</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0</v>
+      </c>
+      <c r="G29" s="21">
+        <v>12</v>
+      </c>
+      <c r="H29" s="21">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="I29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>$|1|6|0|12|55\r</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>